--- a/venta_departamento_la-araucania.xlsx
+++ b/venta_departamento_la-araucania.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="670">
   <si>
     <t>id</t>
   </si>
@@ -25,97 +25,358 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
+    <t>Condominio Costanera Villarrica</t>
+  </si>
+  <si>
+    <t>$ 109.086.845</t>
+  </si>
+  <si>
+    <t>-72.21782</t>
+  </si>
+  <si>
+    <t>summary_large_image</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/5202-condominio-costanera-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Paihuen</t>
+  </si>
+  <si>
+    <t>$ 147.738.407</t>
+  </si>
+  <si>
+    <t>-39.29231</t>
+  </si>
+  <si>
+    <t>-72.18713</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7075-paihuen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Condominio Alta Vista</t>
+  </si>
+  <si>
+    <t>$ 53.771.456</t>
+  </si>
+  <si>
+    <t>-38.72288</t>
+  </si>
+  <si>
+    <t>-72.63601</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/4923-condominio-alta-vista-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Los Conquistadores IV</t>
+  </si>
+  <si>
+    <t>$ 65.750.246</t>
+  </si>
+  <si>
+    <t>-38.73405</t>
+  </si>
+  <si>
+    <t>-72.60459</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6999-los-conquistadores-iv-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Porto Belo Home &amp; Club</t>
+  </si>
+  <si>
+    <t>$ 59.893.949</t>
+  </si>
+  <si>
+    <t>-38.74657</t>
+  </si>
+  <si>
+    <t>-72.64347</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6104-porto-belo-home-club-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Torre Nueva O´Higgins</t>
+  </si>
+  <si>
+    <t>$ 38.864.518</t>
+  </si>
+  <si>
+    <t>-38.74393</t>
+  </si>
+  <si>
+    <t>-72.58859</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6009-torre-nueva-ohiggins-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Portal del Sur</t>
+  </si>
+  <si>
+    <t>$ 39.929.299</t>
+  </si>
+  <si>
+    <t>-38.71127</t>
+  </si>
+  <si>
+    <t>-72.55901</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7097-portal-del-sur-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Condominio Costa Pucón</t>
+  </si>
+  <si>
+    <t>$ 174.916.950</t>
+  </si>
+  <si>
+    <t>-39.26878</t>
+  </si>
+  <si>
+    <t>-71.97498</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/6684-condominio-costa-pucon-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Edificio Centro Blanco</t>
+  </si>
+  <si>
+    <t>$ 32.635.547</t>
+  </si>
+  <si>
+    <t>portal_inmob</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7118-edificio-centro-blanco-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Maringá City Home</t>
+  </si>
+  <si>
+    <t>$ 47.249.671</t>
+  </si>
+  <si>
+    <t>-38.73365</t>
+  </si>
+  <si>
+    <t>-72.60672</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6890-maringa-city-home-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+  </si>
+  <si>
+    <t>Doña Carmen</t>
+  </si>
+  <si>
+    <t>$ 50.231.058</t>
+  </si>
+  <si>
+    <t>-38.73860</t>
+  </si>
+  <si>
+    <t>-72.59594</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/5136-dona-carmen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Los Coihues</t>
+  </si>
+  <si>
+    <t>$ 35.430.598</t>
+  </si>
+  <si>
+    <t>-38.71221</t>
+  </si>
+  <si>
+    <t>-72.65881</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/4552-condominio-los-coihues-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Aragón</t>
+  </si>
+  <si>
+    <t>$ 53.185.827</t>
+  </si>
+  <si>
+    <t>-38.73097</t>
+  </si>
+  <si>
+    <t>-72.61252</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/5767-condominio-aragon-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Santa Teresa</t>
+  </si>
+  <si>
+    <t>$ 32.422.591</t>
+  </si>
+  <si>
+    <t>-38.77232</t>
+  </si>
+  <si>
+    <t>-72.58536</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/padre-las-casas-la-araucania/6468-condominio-santa-teresa-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Alto Lomas del Carmen</t>
+  </si>
+  <si>
+    <t>$ 38.332.127</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7117-condominio-alto-lomas-del-carmen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Puerto Pewün</t>
+  </si>
+  <si>
+    <t>$ 93.301.462</t>
+  </si>
+  <si>
+    <t>-39.27837</t>
+  </si>
+  <si>
+    <t>-72.22201</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7023-puerto-pewun-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>La Poza</t>
+  </si>
+  <si>
+    <t>$ 94.233.146</t>
+  </si>
+  <si>
+    <t>-39.28048</t>
+  </si>
+  <si>
+    <t>-71.98199</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/6262-la-poza-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Altos De Villarrica</t>
+  </si>
+  <si>
+    <t>$ 45.785.596</t>
+  </si>
+  <si>
+    <t>-39.29408</t>
+  </si>
+  <si>
+    <t>-72.23099</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7268-condominio-altos-de-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Condominio Costa Pucón - Etapa II</t>
+  </si>
+  <si>
+    <t>$ 124.978.706</t>
+  </si>
+  <si>
+    <t>-39.26871</t>
+  </si>
+  <si>
+    <t>-71.97499</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/7162-condominio-costa-pucon-etapa-ii-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>La Puntilla Villarrica</t>
+  </si>
+  <si>
+    <t>$ 237.313.135</t>
+  </si>
+  <si>
+    <t>-39.28885</t>
+  </si>
+  <si>
+    <t>-72.20033</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7062-la-puntilla-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Edificio Centro Lynch</t>
+  </si>
+  <si>
+    <t>$ 46.317.987</t>
+  </si>
+  <si>
+    <t>-38.74025</t>
+  </si>
+  <si>
+    <t>-72.59505</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6572-edificio-centro-lynch-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
     <t>Nueva Costanera</t>
   </si>
   <si>
     <t>$ 38.598.323</t>
   </si>
   <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7078-nueva-costanera-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Alto Lomas del Carmen</t>
-  </si>
-  <si>
-    <t>$ 38.332.127</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7117-condominio-alto-lomas-del-carmen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Edificio Centro Blanco</t>
-  </si>
-  <si>
-    <t>$ 32.635.547</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7118-edificio-centro-blanco-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Costa Pucón - Etapa II</t>
-  </si>
-  <si>
-    <t>$ 124.978.706</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/7162-condominio-costa-pucon-etapa-ii-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Altos De Villarrica</t>
-  </si>
-  <si>
-    <t>$ 45.785.596</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7268-condominio-altos-de-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Alta Vista</t>
-  </si>
-  <si>
-    <t>$ 53.771.456</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/4923-condominio-alta-vista-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>La Poza</t>
-  </si>
-  <si>
-    <t>$ 94.233.146</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/6262-la-poza-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Los Conquistadores IV</t>
-  </si>
-  <si>
-    <t>$ 65.750.246</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6999-los-conquistadores-iv-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Costanera Villarrica</t>
-  </si>
-  <si>
-    <t>$ 109.086.845</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/5202-condominio-costanera-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
-  </si>
-  <si>
-    <t>Condominio Aragón</t>
-  </si>
-  <si>
-    <t>$ 53.185.827</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/5767-condominio-aragon-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
+    <t>-38.74946</t>
+  </si>
+  <si>
+    <t>-72.60536</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7078-nueva-costanera-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
+  </si>
+  <si>
+    <t>Nueva Milano</t>
+  </si>
+  <si>
+    <t>$ 36.734.955</t>
+  </si>
+  <si>
+    <t>-38.75945</t>
+  </si>
+  <si>
+    <t>-72.64667</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7069-nueva-milano-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Condominio Los Castaños de Alicura - Departamentos</t>
@@ -124,141 +385,42 @@
     <t>$ 68.758.253</t>
   </si>
   <si>
+    <t>-39.28704</t>
+  </si>
+  <si>
+    <t>-71.99252</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/6879-condominio-los-castanos-de-alicura-departamentos-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Porto Belo Home &amp; Club</t>
-  </si>
-  <si>
-    <t>$ 59.893.949</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6104-porto-belo-home-club-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Puerto Pewün</t>
-  </si>
-  <si>
-    <t>$ 93.301.462</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7023-puerto-pewun-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Maringá City Home</t>
-  </si>
-  <si>
-    <t>$ 47.249.671</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6890-maringa-city-home-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Condominio Santa Teresa</t>
-  </si>
-  <si>
-    <t>$ 32.422.591</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/padre-las-casas-la-araucania/6468-condominio-santa-teresa-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Condominio Costanera Playa</t>
   </si>
   <si>
     <t>$ 59.814.090</t>
   </si>
   <si>
+    <t>-39.29131</t>
+  </si>
+  <si>
+    <t>-72.21680</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7119-condominio-costanera-playa-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
-    <t>Torre Nueva O´Higgins</t>
-  </si>
-  <si>
-    <t>$ 38.864.518</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6009-torre-nueva-ohiggins-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Nueva Milano</t>
-  </si>
-  <si>
-    <t>$ 36.734.955</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7069-nueva-milano-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Doña Carmen</t>
-  </si>
-  <si>
-    <t>$ 50.231.058</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/5136-dona-carmen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Edificio Centro Lynch</t>
-  </si>
-  <si>
-    <t>$ 46.317.987</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/6572-edificio-centro-lynch-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Portal del Sur</t>
-  </si>
-  <si>
-    <t>$ 39.929.299</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/7097-portal-del-sur-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Condominio Los Coihues</t>
-  </si>
-  <si>
-    <t>$ 35.430.598</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/4552-condominio-los-coihues-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>La Puntilla Villarrica</t>
-  </si>
-  <si>
-    <t>$ 237.313.135</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7062-la-puntilla-villarrica-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Paihuen</t>
-  </si>
-  <si>
-    <t>$ 147.738.407</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/7075-paihuen-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
-    <t>Condominio Costa Pucón</t>
-  </si>
-  <si>
-    <t>$ 174.916.950</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/6684-condominio-costa-pucon-nva?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
-  </si>
-  <si>
     <t>Calle Clemente Holzapfel 412, Pucón</t>
   </si>
   <si>
     <t>$ 10.113.839</t>
   </si>
   <si>
+    <t>-39.27198</t>
+  </si>
+  <si>
+    <t>-71.97660</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3018490-calle-clemente-holzapfel-412-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -268,6 +430,12 @@
     <t>$ 11.013.478</t>
   </si>
   <si>
+    <t>-39.27473</t>
+  </si>
+  <si>
+    <t>-71.98500</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3554027-peninsula-pucon-vista-volcan-y-lago-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -277,6 +445,12 @@
     <t>$ 15.018.381</t>
   </si>
   <si>
+    <t>-39.27467</t>
+  </si>
+  <si>
+    <t>-71.98466</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3554000-peninsula-vista-lago-y-volcan-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -295,6 +469,12 @@
     <t>$ 20.227.677</t>
   </si>
   <si>
+    <t>-38.76305</t>
+  </si>
+  <si>
+    <t>-72.60311</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/padre-las-casas-la-araucania/2622631-avenida-conoepan-2520-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -304,6 +484,12 @@
     <t>$ 22.029.796</t>
   </si>
   <si>
+    <t>-38.79168</t>
+  </si>
+  <si>
+    <t>-72.57886</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/padre-las-casas-la-araucania/3426027-av-maquehuepadre-las-casas-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -313,6 +499,12 @@
     <t>$ 30.032.809</t>
   </si>
   <si>
+    <t>-38.75000</t>
+  </si>
+  <si>
+    <t>-72.66667</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3165082-terrazas-del-carmen-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -322,6 +514,12 @@
     <t>$ 31.542.661</t>
   </si>
   <si>
+    <t>-38.67328</t>
+  </si>
+  <si>
+    <t>-72.66778</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3407943-los-creadoresfundo-el-carmen-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -367,6 +565,12 @@
     <t>$ 35.934.903</t>
   </si>
   <si>
+    <t>-38.73683</t>
+  </si>
+  <si>
+    <t>-72.57982</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3226482-avenida-barros-arana-205-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -376,6 +580,12 @@
     <t>$ 42.047.107</t>
   </si>
   <si>
+    <t>-38.71181</t>
+  </si>
+  <si>
+    <t>-72.56203</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3308312-portal-2000-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -400,6 +610,12 @@
     <t>$ 45.084.188</t>
   </si>
   <si>
+    <t>-38.74219</t>
+  </si>
+  <si>
+    <t>-72.58612</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3339193-andres-bello-1184-departamento-601-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -409,6 +625,12 @@
     <t>$ 45.253.206</t>
   </si>
   <si>
+    <t>-39.27020</t>
+  </si>
+  <si>
+    <t>-71.79137</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3567578-acogedor-departamento-a-pasos-de-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -418,6 +640,12 @@
     <t>$ 46.948.098</t>
   </si>
   <si>
+    <t>-39.29143</t>
+  </si>
+  <si>
+    <t>-71.97932</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3479887-departamento-en-parque-suizo-900-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -427,6 +655,12 @@
     <t>$ 47.009.089</t>
   </si>
   <si>
+    <t>-39.28588</t>
+  </si>
+  <si>
+    <t>-71.97860</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3581476-departamento-amoblado-en-condominio-los-refugios-iv-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -436,6 +670,9 @@
     <t>$ 47.075.741</t>
   </si>
   <si>
+    <t>-71.97930</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3333722-departamento-amoblado-en-condominio-suizo-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -445,6 +682,12 @@
     <t>$ 48.009.275</t>
   </si>
   <si>
+    <t>-38.71830</t>
+  </si>
+  <si>
+    <t>-72.65030</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3509157-luis-durand-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -472,6 +715,12 @@
     <t>$ 50.006.445</t>
   </si>
   <si>
+    <t>-38.72243</t>
+  </si>
+  <si>
+    <t>-72.56566</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3584433-ercilla-2373-departamento-202-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -481,6 +730,12 @@
     <t>$ 50.912.867</t>
   </si>
   <si>
+    <t>-39.29180</t>
+  </si>
+  <si>
+    <t>-71.97942</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3386305-departamento-en-parque-al-volcan-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -499,6 +754,12 @@
     <t>$ 57.114.004</t>
   </si>
   <si>
+    <t>-38.73043</t>
+  </si>
+  <si>
+    <t>-72.57264</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3018709-avenida-barros-arana-temuco-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -517,6 +778,12 @@
     <t>$ 59.003.802</t>
   </si>
   <si>
+    <t>-39.27500</t>
+  </si>
+  <si>
+    <t>-71.98420</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3491413-clemente-holzapfel-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -526,6 +793,12 @@
     <t>$ 59.011.093</t>
   </si>
   <si>
+    <t>-39.27451</t>
+  </si>
+  <si>
+    <t>-71.98320</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3489800-peninsula-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -535,6 +808,12 @@
     <t>$ 59.072.294</t>
   </si>
   <si>
+    <t>-39.27454</t>
+  </si>
+  <si>
+    <t>-71.98398</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3553942-peninsula-pucon-vista-lago-y-volcan-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -544,6 +823,12 @@
     <t>$ 60.120.005</t>
   </si>
   <si>
+    <t>-38.73852</t>
+  </si>
+  <si>
+    <t>-72.61355</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3218482-departamento-espacio-lugano-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -553,6 +838,12 @@
     <t>$ 61.027.249</t>
   </si>
   <si>
+    <t>-38.74133</t>
+  </si>
+  <si>
+    <t>-72.61411</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3508013-santa-teresa-temuco-departamento-845-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -562,6 +853,12 @@
     <t>$ 63.571.219</t>
   </si>
   <si>
+    <t>-38.73951</t>
+  </si>
+  <si>
+    <t>-72.58525</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3117862-general-cruz-535-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -571,6 +868,12 @@
     <t>$ 65.008.378</t>
   </si>
   <si>
+    <t>-38.73235</t>
+  </si>
+  <si>
+    <t>-72.61145</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3584063-calle-espana-frente-al-portal-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -580,12 +883,24 @@
     <t>$ 65.071.259</t>
   </si>
   <si>
+    <t>-38.74194</t>
+  </si>
+  <si>
+    <t>-72.58790</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3559175-andres-bello-temuco-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>Camino al volcan, Pucón</t>
   </si>
   <si>
+    <t>-39.28904</t>
+  </si>
+  <si>
+    <t>-71.97847</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3553292-camino-al-volcan-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -613,6 +928,12 @@
     <t>$ 72.994.848</t>
   </si>
   <si>
+    <t>-38.74096</t>
+  </si>
+  <si>
+    <t>-72.59467</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3495887-andres-bello-538-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -622,6 +943,12 @@
     <t>$ 75.009.669</t>
   </si>
   <si>
+    <t>-38.72884</t>
+  </si>
+  <si>
+    <t>-72.61222</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3584380-departamento-de-tres-dormitorios-en-torre-mistral-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -631,6 +958,12 @@
     <t>$ 75.014.504</t>
   </si>
   <si>
+    <t>-38.72984</t>
+  </si>
+  <si>
+    <t>-72.61359</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3582340-calatayud-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -640,6 +973,12 @@
     <t>$ 78.156.008</t>
   </si>
   <si>
+    <t>-38.73276</t>
+  </si>
+  <si>
+    <t>-72.59024</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3223441-balmaceda-721-departamento-203-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -649,6 +988,12 @@
     <t>$ 78.953.534</t>
   </si>
   <si>
+    <t>-39.27370</t>
+  </si>
+  <si>
+    <t>-72.23926</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3361735-isabel-riquelme-519-departamento-nueva-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -658,6 +1003,12 @@
     <t>$ 85.182.505</t>
   </si>
   <si>
+    <t>-39.28458</t>
+  </si>
+  <si>
+    <t>-71.98009</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3097627-camino-al-volcan-km-1-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -667,6 +1018,12 @@
     <t>$ 87.162.764</t>
   </si>
   <si>
+    <t>-38.74656</t>
+  </si>
+  <si>
+    <t>-72.64350</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3538027-los-pablos-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -676,6 +1033,12 @@
     <t>$ 90.016.924</t>
   </si>
   <si>
+    <t>-39.29063</t>
+  </si>
+  <si>
+    <t>-72.22421</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3378416-costanera-sn-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -685,6 +1048,12 @@
     <t>$ 93.168.365</t>
   </si>
   <si>
+    <t>-35.67520</t>
+  </si>
+  <si>
+    <t>-71.54300</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3508344-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -694,6 +1063,12 @@
     <t>$ 95.067.376</t>
   </si>
   <si>
+    <t>-38.73575</t>
+  </si>
+  <si>
+    <t>-72.61822</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3569321-departamento-de-tres-dormitorios-en-holandesa-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -703,6 +1078,12 @@
     <t>$ 95.830.318</t>
   </si>
   <si>
+    <t>-39.27746</t>
+  </si>
+  <si>
+    <t>-71.96844</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3542827-departamento-en-pucon-centro-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -712,6 +1093,12 @@
     <t>$ 97.168.945</t>
   </si>
   <si>
+    <t>-38.73520</t>
+  </si>
+  <si>
+    <t>-72.60970</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3299386-avenida-alemania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -721,6 +1108,12 @@
     <t>$ 98.492.271</t>
   </si>
   <si>
+    <t>-38.73066</t>
+  </si>
+  <si>
+    <t>-72.61797</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3583614-las-delicias-temuco-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -739,6 +1132,12 @@
     <t>$ 100.019.338</t>
   </si>
   <si>
+    <t>-38.74922</t>
+  </si>
+  <si>
+    <t>-72.64634</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3582587-avenida-martin-lutero-02145-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -748,6 +1147,12 @@
     <t>$ 100.888.029</t>
   </si>
   <si>
+    <t>-38.74147</t>
+  </si>
+  <si>
+    <t>-72.64320</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/2913781-los-conquistadores-1640-departamento-406-b-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -757,6 +1162,12 @@
     <t>$ 106.478.131</t>
   </si>
   <si>
+    <t>-39.27910</t>
+  </si>
+  <si>
+    <t>-72.22230</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3568828-pedro-mont-sn-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -766,6 +1177,12 @@
     <t>$ 110.113.494</t>
   </si>
   <si>
+    <t>-39.27032</t>
+  </si>
+  <si>
+    <t>-71.97638</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/1180895-departamento-central-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -775,6 +1192,12 @@
     <t>$ 110.205.792</t>
   </si>
   <si>
+    <t>-39.27808</t>
+  </si>
+  <si>
+    <t>-71.97541</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3227082-departamento-en-pleno-centro-de-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -784,6 +1207,12 @@
     <t>$ 115.215.146</t>
   </si>
   <si>
+    <t>-39.28201</t>
+  </si>
+  <si>
+    <t>-72.23078</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3468944-villarrica-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -793,6 +1222,12 @@
     <t>$ 117.125.944</t>
   </si>
   <si>
+    <t>-38.73024</t>
+  </si>
+  <si>
+    <t>-72.62623</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3472104-excelente-departamento-en-condominio-cumbres-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -820,6 +1255,12 @@
     <t>$ 124.873.778</t>
   </si>
   <si>
+    <t>-39.27179</t>
+  </si>
+  <si>
+    <t>-71.97414</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3110954-arauco-esquina-holzapfel-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -838,6 +1279,12 @@
     <t>$ 129.104.734</t>
   </si>
   <si>
+    <t>-39.27933</t>
+  </si>
+  <si>
+    <t>-71.98570</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/2491514-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -847,12 +1294,24 @@
     <t>$ 130.243.212</t>
   </si>
   <si>
+    <t>-39.27354</t>
+  </si>
+  <si>
+    <t>-71.97371</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3443634-geronimo-de-alderete-colo-colo-playa-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 138.133.481</t>
   </si>
   <si>
+    <t>-38.73337</t>
+  </si>
+  <si>
+    <t>-72.61305</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3561938-avenida-alemania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -862,6 +1321,12 @@
     <t>$ 140.098.601</t>
   </si>
   <si>
+    <t>-39.27312</t>
+  </si>
+  <si>
+    <t>-71.97243</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3537457-geronimo-de-alderete-av-colo-colo-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -871,12 +1336,21 @@
     <t>$ 140.252.880</t>
   </si>
   <si>
+    <t>-71.97982</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/2876501-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
     <t>$ 140.261.920</t>
   </si>
   <si>
+    <t>-39.27318</t>
+  </si>
+  <si>
+    <t>-71.97385</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3089700-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -886,6 +1360,12 @@
     <t>$ 141.083.524</t>
   </si>
   <si>
+    <t>-39.27523</t>
+  </si>
+  <si>
+    <t>-71.97525</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3255177-general-urrutia-00-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -901,6 +1381,12 @@
     <t>$ 146.263.717</t>
   </si>
   <si>
+    <t>-38.73113</t>
+  </si>
+  <si>
+    <t>-72.61165</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3326654-hochstetter-285-departamento-402-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=</t>
   </si>
   <si>
@@ -919,6 +1405,12 @@
     <t>$ 148.803.188</t>
   </si>
   <si>
+    <t>-39.30101</t>
+  </si>
+  <si>
+    <t>-72.18282</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3515350-departamento-en-el-centro-de-villarrica-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -928,12 +1420,24 @@
     <t>$ 150.009.668</t>
   </si>
   <si>
+    <t>-38.74581</t>
+  </si>
+  <si>
+    <t>-72.63958</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3586120-av-los-pablos-con-los-estudiantes-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>$ 150.270.941</t>
   </si>
   <si>
+    <t>-39.27225</t>
+  </si>
+  <si>
+    <t>-71.97763</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/2667171-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -943,6 +1447,12 @@
     <t>$ 154.393.290</t>
   </si>
   <si>
+    <t>-39.28021</t>
+  </si>
+  <si>
+    <t>-72.22332</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3415954-san-martin-802-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -961,6 +1471,12 @@
     <t>$ 160.299.337</t>
   </si>
   <si>
+    <t>-39.27649</t>
+  </si>
+  <si>
+    <t>-71.97496</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3465544-a-pasos-del-lago-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -988,6 +1504,12 @@
     <t>$ 190.862.050</t>
   </si>
   <si>
+    <t>-38.73345</t>
+  </si>
+  <si>
+    <t>-72.60740</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3476042-edificio-aillacara-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -997,6 +1519,12 @@
     <t>$ 198.315.519</t>
   </si>
   <si>
+    <t>-39.27218</t>
+  </si>
+  <si>
+    <t>-71.97792</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3519438-departamento-pucon-a-pasos-del-lago-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1033,6 +1561,12 @@
     <t>$ 200.490.923</t>
   </si>
   <si>
+    <t>-39.29284</t>
+  </si>
+  <si>
+    <t>-72.19297</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/villarrica-la-araucania/3344230-departamento-en-condominio-la-puntilla-camino-villarrica-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1045,21 +1579,27 @@
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3358986-colo-colo-143-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
+    <t>Pucon, La Araucanía, Pucón</t>
+  </si>
+  <si>
+    <t>-39.27602</t>
+  </si>
+  <si>
+    <t>-71.96674</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3437723-pucon-la-araucania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
+  </si>
+  <si>
+    <t>Departamento en orilla de lago en Pucón, Pucón</t>
+  </si>
+  <si>
+    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3516716-departamento-en-orilla-de-lago-en-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3376029-pucon-araucania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
-    <t>Pucon, La Araucanía, Pucón</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3437723-pucon-la-araucania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
-  </si>
-  <si>
-    <t>Departamento en orilla de lago en Pucón, Pucón</t>
-  </si>
-  <si>
-    <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3516716-departamento-en-orilla-de-lago-en-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
-  </si>
-  <si>
     <t>$ 223.604.076</t>
   </si>
   <si>
@@ -1072,6 +1612,12 @@
     <t>$ 226.266.029</t>
   </si>
   <si>
+    <t>-39.30250</t>
+  </si>
+  <si>
+    <t>-72.08150</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3466578-pucon-2-estacionamientos-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1090,6 +1636,12 @@
     <t>$ 230.430.295</t>
   </si>
   <si>
+    <t>-39.28159</t>
+  </si>
+  <si>
+    <t>-71.97997</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3265005-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1117,6 +1669,9 @@
     <t>$ 234.251.889</t>
   </si>
   <si>
+    <t>-39.27600</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3550195-centro-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1129,6 +1684,12 @@
     <t>PUERTO MALAL - / PUCÓN, Pucón</t>
   </si>
   <si>
+    <t>-39.28820</t>
+  </si>
+  <si>
+    <t>-71.99857</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3448351-puerto-malal-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1144,6 +1705,12 @@
     <t>$ 289.487.419</t>
   </si>
   <si>
+    <t>-39.27230</t>
+  </si>
+  <si>
+    <t>-71.97760</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3195745-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1186,6 +1753,12 @@
     <t>$ 314.110.487</t>
   </si>
   <si>
+    <t>-38.73350</t>
+  </si>
+  <si>
+    <t>-72.60710</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3282528-inglaterra-con-trizano-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1234,6 +1807,12 @@
     <t>Camino Villarrica - Pucon  km. 3.5, Pucón</t>
   </si>
   <si>
+    <t>-39.29240</t>
+  </si>
+  <si>
+    <t>-72.19020</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/2947091-camino-villarrica-pucon-km-35-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1285,6 +1864,9 @@
     <t>$ 110.056.736</t>
   </si>
   <si>
+    <t>-71.97370</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3573414-procasaarauco-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1300,6 +1882,9 @@
     <t>$ 198.395.378</t>
   </si>
   <si>
+    <t>-72.58934</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3488260-prat-109-departamento-109-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1318,6 +1903,12 @@
     <t>$ 36.034.822</t>
   </si>
   <si>
+    <t>-38.72353</t>
+  </si>
+  <si>
+    <t>-72.61455</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3562401-concepcion-1055-departamento-501-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1327,6 +1918,12 @@
     <t>$ 52.972.870</t>
   </si>
   <si>
+    <t>-39.28950</t>
+  </si>
+  <si>
+    <t>-71.97865</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3560701-camino-al-volcan-pucon-departamento-760-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1336,6 +1933,12 @@
     <t>$ 62.019.984</t>
   </si>
   <si>
+    <t>-37.79746</t>
+  </si>
+  <si>
+    <t>-72.71484</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/angol-la-araucania/3578001-puren-529-departamento-201-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1345,6 +1948,12 @@
     <t>$ 73.023.528</t>
   </si>
   <si>
+    <t>-38.74498</t>
+  </si>
+  <si>
+    <t>-72.64033</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3578352-jumbo-los-pablos-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1363,12 +1972,24 @@
     <t>$ 105.074.467</t>
   </si>
   <si>
+    <t>-38.73837</t>
+  </si>
+  <si>
+    <t>-72.59445</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3569201-a-una-cuadra-del-supermercado-santa-isabel-de-caupolican-con-av-alemania-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
     <t>Ramón Quezada 515, Pucon, Pucón</t>
   </si>
   <si>
+    <t>-39.26780</t>
+  </si>
+  <si>
+    <t>-71.97405</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/pucon-la-araucania/3530645-ramon-quezada-515-pucon-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1387,6 +2008,9 @@
     <t>$ 64.066.033</t>
   </si>
   <si>
+    <t>-72.59622</t>
+  </si>
+  <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3561291-las-heras-684-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
   </si>
   <si>
@@ -1394,6 +2018,9 @@
   </si>
   <si>
     <t>$ 160.185.727</t>
+  </si>
+  <si>
+    <t>-72.72700</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/temuco-la-araucania/3556497-salida-norte-de-temuco-uda?tp=2&amp;op=1&amp;iug=449&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i=1</t>
@@ -1737,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +2374,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1760,2469 +2387,4944 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
+        <v>5202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>76.59</v>
+      </c>
+      <c r="E2">
+        <v>138.74</v>
+      </c>
+      <c r="F2">
+        <v>107.665</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>7075</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>74.11</v>
+      </c>
+      <c r="E3">
+        <v>173.76</v>
+      </c>
+      <c r="F3">
+        <v>123.935</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4923</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>6999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>27.04</v>
+      </c>
+      <c r="E7">
+        <v>61.85</v>
+      </c>
+      <c r="F7">
+        <v>44.445</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7097</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>47.24</v>
+      </c>
+      <c r="E8">
+        <v>58.02</v>
+      </c>
+      <c r="F8">
+        <v>52.63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>6684</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>107</v>
+      </c>
+      <c r="E9">
+        <v>116</v>
+      </c>
+      <c r="F9">
+        <v>111.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>26.5</v>
+      </c>
+      <c r="E10">
+        <v>64.12</v>
+      </c>
+      <c r="F10">
+        <v>45.31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>6890</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="F11">
+        <v>45.84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>5136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>42.12</v>
+      </c>
+      <c r="E12">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="F12">
+        <v>57.55499999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>4552</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>51.5</v>
+      </c>
+      <c r="E13">
+        <v>51.5</v>
+      </c>
+      <c r="F13">
+        <v>51.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>5767</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>37.85</v>
+      </c>
+      <c r="E14">
+        <v>80.66</v>
+      </c>
+      <c r="F14">
+        <v>59.255</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>6468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>47.69</v>
+      </c>
+      <c r="E15">
+        <v>56.84</v>
+      </c>
+      <c r="F15">
+        <v>52.265</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>7117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>47.23</v>
+      </c>
+      <c r="E16">
+        <v>58.31</v>
+      </c>
+      <c r="F16">
+        <v>52.77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>7023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>51.93</v>
+      </c>
+      <c r="E17">
+        <v>97.33</v>
+      </c>
+      <c r="F17">
+        <v>74.63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>6262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>42.13</v>
+      </c>
+      <c r="E18">
+        <v>113.15</v>
+      </c>
+      <c r="F18">
+        <v>77.64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>7268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>42.2</v>
+      </c>
+      <c r="E19">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="F19">
+        <v>59.925</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>7162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>61.6</v>
+      </c>
+      <c r="E20">
+        <v>98.31</v>
+      </c>
+      <c r="F20">
+        <v>79.955</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>7062</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>138.4</v>
+      </c>
+      <c r="E21">
+        <v>204.14</v>
+      </c>
+      <c r="F21">
+        <v>171.27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>6572</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>38.37</v>
+      </c>
+      <c r="E22">
+        <v>104.44</v>
+      </c>
+      <c r="F22">
+        <v>71.405</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>7078</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>7117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>7118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>7162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>7268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>4923</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6262</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>6999</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>5202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>5767</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>47.57</v>
+      </c>
+      <c r="E23">
+        <v>58.02</v>
+      </c>
+      <c r="F23">
+        <v>52.795</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>7069</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>47.24</v>
+      </c>
+      <c r="E24">
+        <v>58.02</v>
+      </c>
+      <c r="F24">
+        <v>52.63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>6879</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>6104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>7023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>6890</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>6468</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
+        <v>42.45</v>
+      </c>
+      <c r="E25">
+        <v>69.2</v>
+      </c>
+      <c r="F25">
+        <v>55.825</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>7119</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>6009</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>7069</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>5136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>6572</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>7097</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>4552</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>7062</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>7075</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>6684</v>
-      </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>41.9</v>
+      </c>
+      <c r="E26">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>80.45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>3018490</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>3554027</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="D28">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>3554000</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>107.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>1396943</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="D30">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>110</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>2622631</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>3426027</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32">
+        <v>48</v>
+      </c>
+      <c r="F32">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3165082</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="D33">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+      <c r="F33">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>3407943</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>3573389</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>3456427</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>48</v>
+      </c>
+      <c r="F36">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>3405988</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>3445513</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>48</v>
+      </c>
+      <c r="F38">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>3226482</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="D39">
+        <v>56</v>
+      </c>
+      <c r="E39">
+        <v>56</v>
+      </c>
+      <c r="F39">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>3308312</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>3456455</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>3456456</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>3339193</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="D43">
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>44</v>
+      </c>
+      <c r="F43">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>3567578</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>202</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>3479887</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>3581476</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>212</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>3333722</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>217</v>
+      </c>
+      <c r="D47">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>3509157</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>221</v>
+      </c>
+      <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>3573382</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>226</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>3399685</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>229</v>
+      </c>
+      <c r="D50">
+        <v>37</v>
+      </c>
+      <c r="E50">
+        <v>37</v>
+      </c>
+      <c r="F50">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>3584433</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>3386305</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>237</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
+      </c>
+      <c r="F52">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>3416971</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>242</v>
+      </c>
+      <c r="D53">
+        <v>49</v>
+      </c>
+      <c r="E53">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>3018709</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>245</v>
+      </c>
+      <c r="D54">
+        <v>70</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" t="s">
+        <v>247</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>3357287</v>
       </c>
       <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>58</v>
+      </c>
+      <c r="F55">
+        <v>57</v>
+      </c>
+      <c r="G55" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="I55" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>3491413</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>253</v>
+      </c>
+      <c r="D56">
+        <v>95</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <v>107.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>255</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>3489800</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>258</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57">
+        <v>110</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>259</v>
+      </c>
+      <c r="H57" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>3553942</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>263</v>
+      </c>
+      <c r="D58">
+        <v>95</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <v>107.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>3218482</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>268</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>269</v>
+      </c>
+      <c r="H59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>3508013</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>273</v>
+      </c>
+      <c r="D60">
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>45</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
+      </c>
+      <c r="H60" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>3117862</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>278</v>
+      </c>
+      <c r="D61">
+        <v>65</v>
+      </c>
+      <c r="E61">
+        <v>65</v>
+      </c>
+      <c r="F61">
+        <v>65</v>
+      </c>
+      <c r="G61" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>3584063</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>283</v>
+      </c>
+      <c r="D62">
+        <v>82</v>
+      </c>
+      <c r="E62">
+        <v>84</v>
+      </c>
+      <c r="F62">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>3559175</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>288</v>
+      </c>
+      <c r="D63">
+        <v>56</v>
+      </c>
+      <c r="E63">
+        <v>56</v>
+      </c>
+      <c r="F63">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>3553292</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>288</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s">
+        <v>293</v>
+      </c>
+      <c r="H64" t="s">
+        <v>294</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>3355766</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>297</v>
+      </c>
+      <c r="D65">
+        <v>56</v>
+      </c>
+      <c r="E65">
+        <v>56</v>
+      </c>
+      <c r="F65">
+        <v>56</v>
+      </c>
+      <c r="G65" t="s">
+        <v>238</v>
+      </c>
+      <c r="H65" t="s">
+        <v>239</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>3517254</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>300</v>
+      </c>
+      <c r="D66">
+        <v>52</v>
+      </c>
+      <c r="E66">
+        <v>54</v>
+      </c>
+      <c r="F66">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>203</v>
+      </c>
+      <c r="H66" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>3495887</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>303</v>
+      </c>
+      <c r="D67">
+        <v>58</v>
+      </c>
+      <c r="E67">
+        <v>58</v>
+      </c>
+      <c r="F67">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s">
+        <v>304</v>
+      </c>
+      <c r="H67" t="s">
+        <v>305</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>3584380</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>308</v>
+      </c>
+      <c r="D68">
+        <v>70</v>
+      </c>
+      <c r="E68">
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <v>70.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>309</v>
+      </c>
+      <c r="H68" t="s">
+        <v>310</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>3582340</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>313</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>314</v>
+      </c>
+      <c r="H69" t="s">
+        <v>315</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>3223441</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>318</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70">
+        <v>84</v>
+      </c>
+      <c r="F70">
+        <v>79.5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" t="s">
+        <v>320</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>3361735</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>323</v>
+      </c>
+      <c r="D71">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="E71">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="F71">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="G71" t="s">
+        <v>324</v>
+      </c>
+      <c r="H71" t="s">
+        <v>325</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>3097627</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>328</v>
+      </c>
+      <c r="D72">
+        <v>54</v>
+      </c>
+      <c r="E72">
+        <v>57.4</v>
+      </c>
+      <c r="F72">
+        <v>55.7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>329</v>
+      </c>
+      <c r="H72" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>3538027</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>333</v>
+      </c>
+      <c r="D73">
+        <v>69</v>
+      </c>
+      <c r="E73">
+        <v>69</v>
+      </c>
+      <c r="F73">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
+        <v>334</v>
+      </c>
+      <c r="H73" t="s">
+        <v>335</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>3378416</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>338</v>
+      </c>
+      <c r="D74">
+        <v>85</v>
+      </c>
+      <c r="E74">
+        <v>85</v>
+      </c>
+      <c r="F74">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s">
+        <v>339</v>
+      </c>
+      <c r="H74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>3508344</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>343</v>
+      </c>
+      <c r="D75">
+        <v>59</v>
+      </c>
+      <c r="E75">
+        <v>59</v>
+      </c>
+      <c r="F75">
+        <v>59</v>
+      </c>
+      <c r="G75" t="s">
+        <v>344</v>
+      </c>
+      <c r="H75" t="s">
+        <v>345</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>3569321</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>348</v>
+      </c>
+      <c r="D76">
+        <v>86</v>
+      </c>
+      <c r="E76">
+        <v>91</v>
+      </c>
+      <c r="F76">
+        <v>88.5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>349</v>
+      </c>
+      <c r="H76" t="s">
+        <v>350</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>3542827</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>353</v>
+      </c>
+      <c r="D77">
+        <v>57</v>
+      </c>
+      <c r="E77">
+        <v>69</v>
+      </c>
+      <c r="F77">
+        <v>63</v>
+      </c>
+      <c r="G77" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" t="s">
+        <v>355</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>3299386</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>358</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>103</v>
+      </c>
+      <c r="F78">
+        <v>101.5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>359</v>
+      </c>
+      <c r="H78" t="s">
+        <v>360</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>3583614</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>362</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>363</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <v>60</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+      <c r="G79" t="s">
+        <v>364</v>
+      </c>
+      <c r="H79" t="s">
+        <v>365</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>3545157</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>368</v>
+      </c>
+      <c r="D80">
+        <v>76</v>
+      </c>
+      <c r="E80">
+        <v>76</v>
+      </c>
+      <c r="F80">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s">
+        <v>349</v>
+      </c>
+      <c r="H80" t="s">
+        <v>350</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>3582587</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>371</v>
+      </c>
+      <c r="D81">
+        <v>78</v>
+      </c>
+      <c r="E81">
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s">
+        <v>372</v>
+      </c>
+      <c r="H81" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>2913781</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>375</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>376</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <v>82</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s">
+        <v>377</v>
+      </c>
+      <c r="H82" t="s">
+        <v>378</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>3568828</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>381</v>
+      </c>
+      <c r="D83">
+        <v>70</v>
+      </c>
+      <c r="E83">
+        <v>70</v>
+      </c>
+      <c r="F83">
+        <v>70</v>
+      </c>
+      <c r="G83" t="s">
+        <v>382</v>
+      </c>
+      <c r="H83" t="s">
+        <v>383</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>1180895</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>386</v>
+      </c>
+      <c r="D84">
+        <v>60</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84" t="s">
+        <v>387</v>
+      </c>
+      <c r="H84" t="s">
+        <v>388</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>3227082</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>391</v>
+      </c>
+      <c r="D85">
+        <v>66</v>
+      </c>
+      <c r="E85">
+        <v>68</v>
+      </c>
+      <c r="F85">
+        <v>67</v>
+      </c>
+      <c r="G85" t="s">
+        <v>392</v>
+      </c>
+      <c r="H85" t="s">
+        <v>393</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>3468944</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>395</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>396</v>
+      </c>
+      <c r="D86">
+        <v>80</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <v>82.5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>397</v>
+      </c>
+      <c r="H86" t="s">
+        <v>398</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>3472104</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>401</v>
+      </c>
+      <c r="D87">
+        <v>80</v>
+      </c>
+      <c r="E87">
+        <v>83</v>
+      </c>
+      <c r="F87">
+        <v>81.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>402</v>
+      </c>
+      <c r="H87" t="s">
+        <v>403</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>3298306</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>406</v>
+      </c>
+      <c r="D88">
+        <v>73</v>
+      </c>
+      <c r="E88">
+        <v>73</v>
+      </c>
+      <c r="F88">
+        <v>73</v>
+      </c>
+      <c r="G88" t="s">
+        <v>203</v>
+      </c>
+      <c r="H88" t="s">
+        <v>204</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>3448262</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>409</v>
+      </c>
+      <c r="D89">
+        <v>80</v>
+      </c>
+      <c r="E89">
+        <v>83</v>
+      </c>
+      <c r="F89">
+        <v>81.5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="H89" t="s">
+        <v>167</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>3110954</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>411</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>412</v>
+      </c>
+      <c r="D90">
+        <v>78</v>
+      </c>
+      <c r="E90">
+        <v>81</v>
+      </c>
+      <c r="F90">
+        <v>79.5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>413</v>
+      </c>
+      <c r="H90" t="s">
+        <v>414</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>3236778</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="C91" t="s">
-        <v>270</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>417</v>
+      </c>
+      <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="H91">
+        <v>-1</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>2491514</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>420</v>
+      </c>
+      <c r="D92">
+        <v>58</v>
+      </c>
+      <c r="E92">
+        <v>74</v>
+      </c>
+      <c r="F92">
+        <v>66</v>
+      </c>
+      <c r="G92" t="s">
+        <v>421</v>
+      </c>
+      <c r="H92" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>3443634</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>425</v>
+      </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>112</v>
+      </c>
+      <c r="F93">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>426</v>
+      </c>
+      <c r="H93" t="s">
+        <v>427</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>3561938</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>429</v>
+      </c>
+      <c r="D94">
+        <v>118</v>
+      </c>
+      <c r="E94">
+        <v>118</v>
+      </c>
+      <c r="F94">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>430</v>
+      </c>
+      <c r="H94" t="s">
+        <v>431</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>3537457</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>434</v>
+      </c>
+      <c r="D95">
+        <v>112</v>
+      </c>
+      <c r="E95">
+        <v>129</v>
+      </c>
+      <c r="F95">
+        <v>120.5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>435</v>
+      </c>
+      <c r="H95" t="s">
+        <v>436</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>2876501</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>439</v>
+      </c>
+      <c r="D96">
+        <v>80</v>
+      </c>
+      <c r="E96">
+        <v>85</v>
+      </c>
+      <c r="F96">
+        <v>82.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>259</v>
+      </c>
+      <c r="H96" t="s">
+        <v>440</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>3089700</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>442</v>
+      </c>
+      <c r="D97">
+        <v>85</v>
+      </c>
+      <c r="E97">
+        <v>90</v>
+      </c>
+      <c r="F97">
+        <v>87.5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>443</v>
+      </c>
+      <c r="H97" t="s">
+        <v>444</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>3255177</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>447</v>
+      </c>
+      <c r="D98">
+        <v>65</v>
+      </c>
+      <c r="E98">
+        <v>70.25</v>
+      </c>
+      <c r="F98">
+        <v>67.625</v>
+      </c>
+      <c r="G98" t="s">
+        <v>448</v>
+      </c>
+      <c r="H98" t="s">
+        <v>449</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>3563960</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>447</v>
+      </c>
+      <c r="D99">
+        <v>70</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+      <c r="F99">
+        <v>75</v>
+      </c>
+      <c r="G99" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>3326654</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="C100" t="s">
-        <v>294</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>454</v>
+      </c>
+      <c r="D100">
+        <v>147</v>
+      </c>
+      <c r="E100">
+        <v>164</v>
+      </c>
+      <c r="F100">
+        <v>155.5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>455</v>
+      </c>
+      <c r="H100" t="s">
+        <v>456</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>3515663</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>459</v>
+      </c>
+      <c r="D101">
+        <v>73</v>
+      </c>
+      <c r="E101">
+        <v>82</v>
+      </c>
+      <c r="F101">
+        <v>77.5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>203</v>
+      </c>
+      <c r="H101" t="s">
+        <v>204</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>3515350</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>462</v>
+      </c>
+      <c r="D102">
+        <v>77</v>
+      </c>
+      <c r="E102">
+        <v>90</v>
+      </c>
+      <c r="F102">
+        <v>83.5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>463</v>
+      </c>
+      <c r="H102" t="s">
+        <v>464</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>3586120</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>466</v>
       </c>
       <c r="C103" t="s">
-        <v>303</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>467</v>
+      </c>
+      <c r="D103">
+        <v>104.44</v>
+      </c>
+      <c r="E103">
+        <v>104.44</v>
+      </c>
+      <c r="F103">
+        <v>104.44</v>
+      </c>
+      <c r="G103" t="s">
+        <v>468</v>
+      </c>
+      <c r="H103" t="s">
+        <v>469</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>2667171</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>471</v>
+      </c>
+      <c r="D104">
+        <v>80</v>
+      </c>
+      <c r="E104">
+        <v>85</v>
+      </c>
+      <c r="F104">
+        <v>82.5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>472</v>
+      </c>
+      <c r="H104" t="s">
+        <v>473</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>3415954</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>475</v>
       </c>
       <c r="C105" t="s">
-        <v>308</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>476</v>
+      </c>
+      <c r="D105">
+        <v>85</v>
+      </c>
+      <c r="E105">
+        <v>85</v>
+      </c>
+      <c r="F105">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s">
+        <v>477</v>
+      </c>
+      <c r="H105" t="s">
+        <v>478</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>3513528</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>481</v>
+      </c>
+      <c r="D106">
+        <v>102</v>
+      </c>
+      <c r="E106">
+        <v>124</v>
+      </c>
+      <c r="F106">
+        <v>113</v>
+      </c>
+      <c r="G106" t="s">
+        <v>203</v>
+      </c>
+      <c r="H106" t="s">
+        <v>204</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>3465544</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="C107" t="s">
-        <v>314</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>484</v>
+      </c>
+      <c r="D107">
+        <v>92.8</v>
+      </c>
+      <c r="E107">
+        <v>111.7</v>
+      </c>
+      <c r="F107">
+        <v>102.25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>485</v>
+      </c>
+      <c r="H107" t="s">
+        <v>486</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>3516825</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>488</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>489</v>
+      </c>
+      <c r="D108">
+        <v>73</v>
+      </c>
+      <c r="E108">
+        <v>81</v>
+      </c>
+      <c r="F108">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s">
+        <v>203</v>
+      </c>
+      <c r="H108" t="s">
+        <v>204</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>3434866</v>
       </c>
       <c r="B109" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>492</v>
+      </c>
+      <c r="D109">
+        <v>94</v>
+      </c>
+      <c r="E109">
+        <v>94</v>
+      </c>
+      <c r="F109">
+        <v>94</v>
+      </c>
+      <c r="G109" t="s">
+        <v>463</v>
+      </c>
+      <c r="H109" t="s">
+        <v>464</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>3476042</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>494</v>
       </c>
       <c r="C110" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>495</v>
+      </c>
+      <c r="D110">
+        <v>174</v>
+      </c>
+      <c r="E110">
+        <v>174</v>
+      </c>
+      <c r="F110">
+        <v>174</v>
+      </c>
+      <c r="G110" t="s">
+        <v>496</v>
+      </c>
+      <c r="H110" t="s">
+        <v>497</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>3519438</v>
       </c>
       <c r="B111" t="s">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+      <c r="E111">
+        <v>105</v>
+      </c>
+      <c r="F111">
+        <v>102.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>501</v>
+      </c>
+      <c r="H111" t="s">
+        <v>502</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>3514319</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>500</v>
+      </c>
+      <c r="D112">
+        <v>95</v>
+      </c>
+      <c r="E112">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" t="s">
+        <v>204</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>3515170</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="D113">
+        <v>89</v>
+      </c>
+      <c r="E113">
+        <v>101</v>
+      </c>
+      <c r="F113">
+        <v>95</v>
+      </c>
+      <c r="G113" t="s">
+        <v>203</v>
+      </c>
+      <c r="H113" t="s">
+        <v>204</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>3353770</v>
       </c>
       <c r="B114" t="s">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="D114">
+        <v>95</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>50</v>
+      </c>
+      <c r="G114" t="s">
+        <v>472</v>
+      </c>
+      <c r="H114" t="s">
+        <v>473</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>3514160</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>511</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>507</v>
+      </c>
+      <c r="D115">
+        <v>90</v>
+      </c>
+      <c r="E115">
+        <v>98</v>
+      </c>
+      <c r="F115">
+        <v>94</v>
+      </c>
+      <c r="G115" t="s">
+        <v>463</v>
+      </c>
+      <c r="H115" t="s">
+        <v>464</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>3344230</v>
       </c>
       <c r="B116" t="s">
-        <v>337</v>
+        <v>513</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>514</v>
+      </c>
+      <c r="D116">
+        <v>80</v>
+      </c>
+      <c r="E116">
+        <v>92</v>
+      </c>
+      <c r="F116">
+        <v>86</v>
+      </c>
+      <c r="G116" t="s">
+        <v>515</v>
+      </c>
+      <c r="H116" t="s">
+        <v>516</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>3358986</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>519</v>
+      </c>
+      <c r="D117">
+        <v>-1</v>
+      </c>
+      <c r="E117">
+        <v>-1</v>
+      </c>
+      <c r="F117">
+        <v>-1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H117" t="s">
+        <v>204</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
+        <v>3437723</v>
+      </c>
+      <c r="B118" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" t="s">
+        <v>519</v>
+      </c>
+      <c r="D118">
+        <v>87</v>
+      </c>
+      <c r="E118">
+        <v>87</v>
+      </c>
+      <c r="F118">
+        <v>87</v>
+      </c>
+      <c r="G118" t="s">
+        <v>522</v>
+      </c>
+      <c r="H118" t="s">
+        <v>523</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>3516716</v>
+      </c>
+      <c r="B119" t="s">
+        <v>525</v>
+      </c>
+      <c r="C119" t="s">
+        <v>519</v>
+      </c>
+      <c r="D119">
+        <v>87</v>
+      </c>
+      <c r="E119">
+        <v>95</v>
+      </c>
+      <c r="F119">
+        <v>91</v>
+      </c>
+      <c r="G119" t="s">
+        <v>203</v>
+      </c>
+      <c r="H119" t="s">
+        <v>204</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
         <v>3376029</v>
       </c>
-      <c r="B118" t="s">
-        <v>333</v>
-      </c>
-      <c r="C118" t="s">
-        <v>341</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
-        <v>3437723</v>
-      </c>
-      <c r="B119" t="s">
-        <v>344</v>
-      </c>
-      <c r="C119" t="s">
-        <v>341</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
-        <v>3516716</v>
-      </c>
       <c r="B120" t="s">
-        <v>346</v>
+        <v>509</v>
       </c>
       <c r="C120" t="s">
-        <v>341</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>519</v>
+      </c>
+      <c r="D120">
+        <v>86</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>45.5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>472</v>
+      </c>
+      <c r="H120" t="s">
+        <v>473</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>3508357</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>528</v>
+      </c>
+      <c r="D121">
+        <v>81</v>
+      </c>
+      <c r="E121">
+        <v>81</v>
+      </c>
+      <c r="F121">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>3466578</v>
       </c>
       <c r="B122" t="s">
-        <v>350</v>
+        <v>530</v>
       </c>
       <c r="C122" t="s">
-        <v>351</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>531</v>
+      </c>
+      <c r="D122">
+        <v>110</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+      <c r="F122">
+        <v>115</v>
+      </c>
+      <c r="G122" t="s">
+        <v>532</v>
+      </c>
+      <c r="H122" t="s">
+        <v>533</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>3450178</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="C123" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>535</v>
+      </c>
+      <c r="D123">
+        <v>104</v>
+      </c>
+      <c r="E123">
+        <v>104</v>
+      </c>
+      <c r="F123">
+        <v>104</v>
+      </c>
+      <c r="G123" t="s">
+        <v>203</v>
+      </c>
+      <c r="H123" t="s">
+        <v>204</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>3527394</v>
       </c>
       <c r="B124" t="s">
-        <v>355</v>
+        <v>537</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>535</v>
+      </c>
+      <c r="D124">
+        <v>85</v>
+      </c>
+      <c r="E124">
+        <v>104</v>
+      </c>
+      <c r="F124">
+        <v>94.5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>472</v>
+      </c>
+      <c r="H124" t="s">
+        <v>473</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>3265005</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>539</v>
+      </c>
+      <c r="D125">
+        <v>120</v>
+      </c>
+      <c r="E125">
+        <v>120</v>
+      </c>
+      <c r="F125">
+        <v>120</v>
+      </c>
+      <c r="G125" t="s">
+        <v>540</v>
+      </c>
+      <c r="H125" t="s">
+        <v>541</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>3374134</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="D126">
+        <v>101</v>
+      </c>
+      <c r="E126">
+        <v>101</v>
+      </c>
+      <c r="F126">
+        <v>101</v>
+      </c>
+      <c r="G126" t="s">
+        <v>203</v>
+      </c>
+      <c r="H126" t="s">
+        <v>204</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>3535911</v>
       </c>
       <c r="B127" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="D127">
+        <v>93</v>
+      </c>
+      <c r="E127">
+        <v>104</v>
+      </c>
+      <c r="F127">
+        <v>98.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>203</v>
+      </c>
+      <c r="H127" t="s">
+        <v>204</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>3587351</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="D128">
+        <v>91</v>
+      </c>
+      <c r="E128">
+        <v>102</v>
+      </c>
+      <c r="F128">
+        <v>96.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>472</v>
+      </c>
+      <c r="H128" t="s">
+        <v>473</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>3550195</v>
       </c>
       <c r="B129" t="s">
-        <v>365</v>
+        <v>549</v>
       </c>
       <c r="C129" t="s">
-        <v>366</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="D129">
+        <v>164</v>
+      </c>
+      <c r="E129">
+        <v>171</v>
+      </c>
+      <c r="F129">
+        <v>167.5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>551</v>
+      </c>
+      <c r="H129" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>3450770</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="C130" t="s">
-        <v>368</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>553</v>
+      </c>
+      <c r="D130">
+        <v>125</v>
+      </c>
+      <c r="E130">
+        <v>145</v>
+      </c>
+      <c r="F130">
+        <v>135</v>
+      </c>
+      <c r="G130" t="s">
+        <v>472</v>
+      </c>
+      <c r="H130" t="s">
+        <v>473</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>3448351</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
+        <v>555</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>553</v>
+      </c>
+      <c r="D131">
+        <v>125</v>
+      </c>
+      <c r="E131">
+        <v>145</v>
+      </c>
+      <c r="F131">
+        <v>135</v>
+      </c>
+      <c r="G131" t="s">
+        <v>556</v>
+      </c>
+      <c r="H131" t="s">
+        <v>557</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>3514770</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>559</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>560</v>
+      </c>
+      <c r="D132">
+        <v>140</v>
+      </c>
+      <c r="E132">
+        <v>176</v>
+      </c>
+      <c r="F132">
+        <v>158</v>
+      </c>
+      <c r="G132" t="s">
+        <v>463</v>
+      </c>
+      <c r="H132" t="s">
+        <v>464</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>3195745</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C133" t="s">
-        <v>375</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>562</v>
+      </c>
+      <c r="D133">
+        <v>177</v>
+      </c>
+      <c r="E133">
+        <v>177</v>
+      </c>
+      <c r="F133">
+        <v>177</v>
+      </c>
+      <c r="G133" t="s">
+        <v>563</v>
+      </c>
+      <c r="H133" t="s">
+        <v>564</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>3195746</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>566</v>
+      </c>
+      <c r="D134">
+        <v>-1</v>
+      </c>
+      <c r="E134">
+        <v>-1</v>
+      </c>
+      <c r="F134">
+        <v>-1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>563</v>
+      </c>
+      <c r="H134" t="s">
+        <v>564</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>3195743</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>568</v>
+      </c>
+      <c r="D135">
+        <v>174</v>
+      </c>
+      <c r="E135">
+        <v>174</v>
+      </c>
+      <c r="F135">
+        <v>174</v>
+      </c>
+      <c r="G135" t="s">
+        <v>563</v>
+      </c>
+      <c r="H135" t="s">
+        <v>564</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>3195740</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="D136">
+        <v>174</v>
+      </c>
+      <c r="E136">
+        <v>174</v>
+      </c>
+      <c r="F136">
+        <v>174</v>
+      </c>
+      <c r="G136" t="s">
+        <v>563</v>
+      </c>
+      <c r="H136" t="s">
+        <v>564</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>3195741</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C137" t="s">
-        <v>381</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>570</v>
+      </c>
+      <c r="D137">
+        <v>176</v>
+      </c>
+      <c r="E137">
+        <v>176</v>
+      </c>
+      <c r="F137">
+        <v>176</v>
+      </c>
+      <c r="G137" t="s">
+        <v>563</v>
+      </c>
+      <c r="H137" t="s">
+        <v>564</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>2891670</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>384</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>573</v>
+      </c>
+      <c r="D138">
+        <v>-1</v>
+      </c>
+      <c r="E138">
+        <v>-1</v>
+      </c>
+      <c r="F138">
+        <v>-1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>463</v>
+      </c>
+      <c r="H138" t="s">
+        <v>464</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>3195739</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C139" t="s">
-        <v>386</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>575</v>
+      </c>
+      <c r="D139">
+        <v>174</v>
+      </c>
+      <c r="E139">
+        <v>174</v>
+      </c>
+      <c r="F139">
+        <v>174</v>
+      </c>
+      <c r="G139" t="s">
+        <v>563</v>
+      </c>
+      <c r="H139" t="s">
+        <v>564</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>3282528</v>
       </c>
       <c r="B140" t="s">
-        <v>388</v>
+        <v>577</v>
       </c>
       <c r="C140" t="s">
-        <v>389</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>578</v>
+      </c>
+      <c r="D140">
+        <v>240</v>
+      </c>
+      <c r="E140">
+        <v>240</v>
+      </c>
+      <c r="F140">
+        <v>240</v>
+      </c>
+      <c r="G140" t="s">
+        <v>579</v>
+      </c>
+      <c r="H140" t="s">
+        <v>580</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>3195742</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>582</v>
+      </c>
+      <c r="D141">
+        <v>176</v>
+      </c>
+      <c r="E141">
+        <v>176</v>
+      </c>
+      <c r="F141">
+        <v>176</v>
+      </c>
+      <c r="G141" t="s">
+        <v>563</v>
+      </c>
+      <c r="H141" t="s">
+        <v>564</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>3515586</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
+        <v>584</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>585</v>
+      </c>
+      <c r="D142">
+        <v>138</v>
+      </c>
+      <c r="E142">
+        <v>138</v>
+      </c>
+      <c r="F142">
+        <v>138</v>
+      </c>
+      <c r="G142" t="s">
+        <v>203</v>
+      </c>
+      <c r="H142" t="s">
+        <v>204</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>3555469</v>
       </c>
       <c r="B143" t="s">
-        <v>396</v>
+        <v>587</v>
       </c>
       <c r="C143" t="s">
+        <v>588</v>
+      </c>
+      <c r="D143">
+        <v>119.26</v>
+      </c>
+      <c r="E143">
+        <v>132.96</v>
+      </c>
+      <c r="F143">
+        <v>126.11</v>
+      </c>
+      <c r="G143" t="s">
         <v>397</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="H143" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="I143" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>3320179</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="C144" t="s">
-        <v>400</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>591</v>
+      </c>
+      <c r="D144">
+        <v>120</v>
+      </c>
+      <c r="E144">
+        <v>120</v>
+      </c>
+      <c r="F144">
+        <v>120</v>
+      </c>
+      <c r="G144" t="s">
+        <v>463</v>
+      </c>
+      <c r="H144" t="s">
+        <v>464</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>3428689</v>
       </c>
       <c r="B145" t="s">
-        <v>402</v>
+        <v>593</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="D145">
+        <v>205</v>
+      </c>
+      <c r="E145">
+        <v>250</v>
+      </c>
+      <c r="F145">
+        <v>227.5</v>
+      </c>
+      <c r="G145" t="s">
+        <v>382</v>
+      </c>
+      <c r="H145" t="s">
+        <v>383</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>2947091</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>596</v>
       </c>
       <c r="C146" t="s">
-        <v>403</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="D146">
+        <v>205</v>
+      </c>
+      <c r="E146">
+        <v>245</v>
+      </c>
+      <c r="F146">
+        <v>225</v>
+      </c>
+      <c r="G146" t="s">
+        <v>597</v>
+      </c>
+      <c r="H146" t="s">
+        <v>598</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>3366133</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>600</v>
       </c>
       <c r="C147" t="s">
-        <v>408</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="D147">
+        <v>233</v>
+      </c>
+      <c r="E147">
+        <v>233</v>
+      </c>
+      <c r="F147">
+        <v>233</v>
+      </c>
+      <c r="G147" t="s">
+        <v>203</v>
+      </c>
+      <c r="H147" t="s">
+        <v>204</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>3513574</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>603</v>
       </c>
       <c r="C148" t="s">
-        <v>408</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="D148">
+        <v>224</v>
+      </c>
+      <c r="E148">
+        <v>224</v>
+      </c>
+      <c r="F148">
+        <v>224</v>
+      </c>
+      <c r="G148" t="s">
+        <v>203</v>
+      </c>
+      <c r="H148" t="s">
+        <v>204</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>3365955</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>605</v>
       </c>
       <c r="C149" t="s">
-        <v>413</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>606</v>
+      </c>
+      <c r="D149">
+        <v>260</v>
+      </c>
+      <c r="E149">
+        <v>260</v>
+      </c>
+      <c r="F149">
+        <v>260</v>
+      </c>
+      <c r="G149" t="s">
+        <v>203</v>
+      </c>
+      <c r="H149" t="s">
+        <v>204</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>2511494</v>
       </c>
       <c r="B150" t="s">
-        <v>415</v>
+        <v>608</v>
       </c>
       <c r="C150" t="s">
-        <v>416</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>609</v>
+      </c>
+      <c r="D150">
+        <v>285</v>
+      </c>
+      <c r="E150">
+        <v>325</v>
+      </c>
+      <c r="F150">
+        <v>305</v>
+      </c>
+      <c r="G150" t="s">
+        <v>472</v>
+      </c>
+      <c r="H150" t="s">
+        <v>473</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>3549078</v>
       </c>
       <c r="B151" t="s">
-        <v>418</v>
+        <v>611</v>
       </c>
       <c r="C151" t="s">
-        <v>419</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>612</v>
+      </c>
+      <c r="D151">
+        <v>119</v>
+      </c>
+      <c r="E151">
+        <v>132</v>
+      </c>
+      <c r="F151">
+        <v>125.5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>203</v>
+      </c>
+      <c r="H151" t="s">
+        <v>204</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>3573414</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>614</v>
       </c>
       <c r="C152" t="s">
-        <v>422</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>615</v>
+      </c>
+      <c r="D152">
+        <v>66</v>
+      </c>
+      <c r="E152">
+        <v>66</v>
+      </c>
+      <c r="F152">
+        <v>66</v>
+      </c>
+      <c r="G152" t="s">
+        <v>616</v>
+      </c>
+      <c r="H152" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>3556355</v>
       </c>
       <c r="B153" t="s">
-        <v>424</v>
+        <v>618</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>481</v>
+      </c>
+      <c r="D153">
+        <v>120</v>
+      </c>
+      <c r="E153">
+        <v>130</v>
+      </c>
+      <c r="F153">
+        <v>125</v>
+      </c>
+      <c r="G153" t="s">
+        <v>204</v>
+      </c>
+      <c r="H153" t="s">
+        <v>12</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>3488260</v>
       </c>
       <c r="B154" t="s">
-        <v>426</v>
+        <v>620</v>
       </c>
       <c r="C154" t="s">
-        <v>427</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>621</v>
+      </c>
+      <c r="D154">
+        <v>230</v>
+      </c>
+      <c r="E154">
+        <v>230</v>
+      </c>
+      <c r="F154">
+        <v>230</v>
+      </c>
+      <c r="G154" t="s">
+        <v>622</v>
+      </c>
+      <c r="H154" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>3569532</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>624</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>625</v>
+      </c>
+      <c r="D155">
+        <v>140</v>
+      </c>
+      <c r="E155">
+        <v>169</v>
+      </c>
+      <c r="F155">
+        <v>154.5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>203</v>
+      </c>
+      <c r="H155" t="s">
+        <v>204</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>3562401</v>
       </c>
       <c r="B156" t="s">
-        <v>432</v>
+        <v>627</v>
       </c>
       <c r="C156" t="s">
-        <v>433</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>628</v>
+      </c>
+      <c r="D156">
+        <v>54</v>
+      </c>
+      <c r="E156">
+        <v>54</v>
+      </c>
+      <c r="F156">
+        <v>54</v>
+      </c>
+      <c r="G156" t="s">
+        <v>629</v>
+      </c>
+      <c r="H156" t="s">
+        <v>630</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>3560701</v>
       </c>
       <c r="B157" t="s">
-        <v>435</v>
+        <v>632</v>
       </c>
       <c r="C157" t="s">
-        <v>436</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>633</v>
+      </c>
+      <c r="D157">
+        <v>33</v>
+      </c>
+      <c r="E157">
+        <v>33</v>
+      </c>
+      <c r="F157">
+        <v>33</v>
+      </c>
+      <c r="G157" t="s">
+        <v>634</v>
+      </c>
+      <c r="H157" t="s">
+        <v>635</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>3578001</v>
       </c>
       <c r="B158" t="s">
-        <v>438</v>
+        <v>637</v>
       </c>
       <c r="C158" t="s">
-        <v>439</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>638</v>
+      </c>
+      <c r="D158">
+        <v>75</v>
+      </c>
+      <c r="E158">
+        <v>78</v>
+      </c>
+      <c r="F158">
+        <v>76.5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>639</v>
+      </c>
+      <c r="H158" t="s">
+        <v>640</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>3578352</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>642</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>643</v>
+      </c>
+      <c r="D159">
+        <v>72</v>
+      </c>
+      <c r="E159">
+        <v>72</v>
+      </c>
+      <c r="F159">
+        <v>72</v>
+      </c>
+      <c r="G159" t="s">
+        <v>644</v>
+      </c>
+      <c r="H159" t="s">
+        <v>645</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>3531701</v>
       </c>
       <c r="B160" t="s">
-        <v>444</v>
+        <v>647</v>
       </c>
       <c r="C160" t="s">
-        <v>445</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>648</v>
+      </c>
+      <c r="D160">
+        <v>46</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>397</v>
+      </c>
+      <c r="H160" t="s">
+        <v>398</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>3569201</v>
       </c>
       <c r="B161" t="s">
-        <v>447</v>
+        <v>650</v>
       </c>
       <c r="C161" t="s">
-        <v>448</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>651</v>
+      </c>
+      <c r="D161">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="E161">
+        <v>121.34</v>
+      </c>
+      <c r="F161">
+        <v>107.37</v>
+      </c>
+      <c r="G161" t="s">
+        <v>652</v>
+      </c>
+      <c r="H161" t="s">
+        <v>653</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>3530645</v>
       </c>
       <c r="B162" t="s">
-        <v>450</v>
+        <v>655</v>
       </c>
       <c r="C162" t="s">
-        <v>311</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>481</v>
+      </c>
+      <c r="D162">
+        <v>80</v>
+      </c>
+      <c r="E162">
+        <v>95</v>
+      </c>
+      <c r="F162">
+        <v>87.5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>656</v>
+      </c>
+      <c r="H162" t="s">
+        <v>657</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>3531583</v>
       </c>
       <c r="B163" t="s">
-        <v>452</v>
+        <v>659</v>
       </c>
       <c r="C163" t="s">
-        <v>453</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>660</v>
+      </c>
+      <c r="D163">
+        <v>128</v>
+      </c>
+      <c r="E163">
+        <v>9.9</v>
+      </c>
+      <c r="F163">
+        <v>68.95</v>
+      </c>
+      <c r="G163" t="s">
+        <v>397</v>
+      </c>
+      <c r="H163" t="s">
+        <v>398</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164">
         <v>3561291</v>
       </c>
       <c r="B164" t="s">
-        <v>455</v>
+        <v>662</v>
       </c>
       <c r="C164" t="s">
-        <v>456</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>663</v>
+      </c>
+      <c r="D164">
+        <v>46.64</v>
+      </c>
+      <c r="E164">
+        <v>63</v>
+      </c>
+      <c r="F164">
+        <v>54.82</v>
+      </c>
+      <c r="G164" t="s">
+        <v>664</v>
+      </c>
+      <c r="H164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165">
         <v>3556497</v>
       </c>
       <c r="B165" t="s">
-        <v>458</v>
+        <v>666</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>460</v>
+        <v>667</v>
+      </c>
+      <c r="D165">
+        <v>142</v>
+      </c>
+      <c r="E165">
+        <v>142</v>
+      </c>
+      <c r="F165">
+        <v>142</v>
+      </c>
+      <c r="G165" t="s">
+        <v>668</v>
+      </c>
+      <c r="H165" t="s">
+        <v>12</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
-    <hyperlink ref="D120" r:id="rId119"/>
-    <hyperlink ref="D121" r:id="rId120"/>
-    <hyperlink ref="D122" r:id="rId121"/>
-    <hyperlink ref="D123" r:id="rId122"/>
-    <hyperlink ref="D124" r:id="rId123"/>
-    <hyperlink ref="D125" r:id="rId124"/>
-    <hyperlink ref="D126" r:id="rId125"/>
-    <hyperlink ref="D127" r:id="rId126"/>
-    <hyperlink ref="D128" r:id="rId127"/>
-    <hyperlink ref="D129" r:id="rId128"/>
-    <hyperlink ref="D130" r:id="rId129"/>
-    <hyperlink ref="D131" r:id="rId130"/>
-    <hyperlink ref="D132" r:id="rId131"/>
-    <hyperlink ref="D133" r:id="rId132"/>
-    <hyperlink ref="D134" r:id="rId133"/>
-    <hyperlink ref="D135" r:id="rId134"/>
-    <hyperlink ref="D136" r:id="rId135"/>
-    <hyperlink ref="D137" r:id="rId136"/>
-    <hyperlink ref="D138" r:id="rId137"/>
-    <hyperlink ref="D139" r:id="rId138"/>
-    <hyperlink ref="D140" r:id="rId139"/>
-    <hyperlink ref="D141" r:id="rId140"/>
-    <hyperlink ref="D142" r:id="rId141"/>
-    <hyperlink ref="D143" r:id="rId142"/>
-    <hyperlink ref="D144" r:id="rId143"/>
-    <hyperlink ref="D145" r:id="rId144"/>
-    <hyperlink ref="D146" r:id="rId145"/>
-    <hyperlink ref="D147" r:id="rId146"/>
-    <hyperlink ref="D148" r:id="rId147"/>
-    <hyperlink ref="D149" r:id="rId148"/>
-    <hyperlink ref="D150" r:id="rId149"/>
-    <hyperlink ref="D151" r:id="rId150"/>
-    <hyperlink ref="D152" r:id="rId151"/>
-    <hyperlink ref="D153" r:id="rId152"/>
-    <hyperlink ref="D154" r:id="rId153"/>
-    <hyperlink ref="D155" r:id="rId154"/>
-    <hyperlink ref="D156" r:id="rId155"/>
-    <hyperlink ref="D157" r:id="rId156"/>
-    <hyperlink ref="D158" r:id="rId157"/>
-    <hyperlink ref="D159" r:id="rId158"/>
-    <hyperlink ref="D160" r:id="rId159"/>
-    <hyperlink ref="D161" r:id="rId160"/>
-    <hyperlink ref="D162" r:id="rId161"/>
-    <hyperlink ref="D163" r:id="rId162"/>
-    <hyperlink ref="D164" r:id="rId163"/>
-    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
+    <hyperlink ref="I105" r:id="rId104"/>
+    <hyperlink ref="I106" r:id="rId105"/>
+    <hyperlink ref="I107" r:id="rId106"/>
+    <hyperlink ref="I108" r:id="rId107"/>
+    <hyperlink ref="I109" r:id="rId108"/>
+    <hyperlink ref="I110" r:id="rId109"/>
+    <hyperlink ref="I111" r:id="rId110"/>
+    <hyperlink ref="I112" r:id="rId111"/>
+    <hyperlink ref="I113" r:id="rId112"/>
+    <hyperlink ref="I114" r:id="rId113"/>
+    <hyperlink ref="I115" r:id="rId114"/>
+    <hyperlink ref="I116" r:id="rId115"/>
+    <hyperlink ref="I117" r:id="rId116"/>
+    <hyperlink ref="I118" r:id="rId117"/>
+    <hyperlink ref="I119" r:id="rId118"/>
+    <hyperlink ref="I120" r:id="rId119"/>
+    <hyperlink ref="I121" r:id="rId120"/>
+    <hyperlink ref="I122" r:id="rId121"/>
+    <hyperlink ref="I123" r:id="rId122"/>
+    <hyperlink ref="I124" r:id="rId123"/>
+    <hyperlink ref="I125" r:id="rId124"/>
+    <hyperlink ref="I126" r:id="rId125"/>
+    <hyperlink ref="I127" r:id="rId126"/>
+    <hyperlink ref="I128" r:id="rId127"/>
+    <hyperlink ref="I129" r:id="rId128"/>
+    <hyperlink ref="I130" r:id="rId129"/>
+    <hyperlink ref="I131" r:id="rId130"/>
+    <hyperlink ref="I132" r:id="rId131"/>
+    <hyperlink ref="I133" r:id="rId132"/>
+    <hyperlink ref="I134" r:id="rId133"/>
+    <hyperlink ref="I135" r:id="rId134"/>
+    <hyperlink ref="I136" r:id="rId135"/>
+    <hyperlink ref="I137" r:id="rId136"/>
+    <hyperlink ref="I138" r:id="rId137"/>
+    <hyperlink ref="I139" r:id="rId138"/>
+    <hyperlink ref="I140" r:id="rId139"/>
+    <hyperlink ref="I141" r:id="rId140"/>
+    <hyperlink ref="I142" r:id="rId141"/>
+    <hyperlink ref="I143" r:id="rId142"/>
+    <hyperlink ref="I144" r:id="rId143"/>
+    <hyperlink ref="I145" r:id="rId144"/>
+    <hyperlink ref="I146" r:id="rId145"/>
+    <hyperlink ref="I147" r:id="rId146"/>
+    <hyperlink ref="I148" r:id="rId147"/>
+    <hyperlink ref="I149" r:id="rId148"/>
+    <hyperlink ref="I150" r:id="rId149"/>
+    <hyperlink ref="I151" r:id="rId150"/>
+    <hyperlink ref="I152" r:id="rId151"/>
+    <hyperlink ref="I153" r:id="rId152"/>
+    <hyperlink ref="I154" r:id="rId153"/>
+    <hyperlink ref="I155" r:id="rId154"/>
+    <hyperlink ref="I156" r:id="rId155"/>
+    <hyperlink ref="I157" r:id="rId156"/>
+    <hyperlink ref="I158" r:id="rId157"/>
+    <hyperlink ref="I159" r:id="rId158"/>
+    <hyperlink ref="I160" r:id="rId159"/>
+    <hyperlink ref="I161" r:id="rId160"/>
+    <hyperlink ref="I162" r:id="rId161"/>
+    <hyperlink ref="I163" r:id="rId162"/>
+    <hyperlink ref="I164" r:id="rId163"/>
+    <hyperlink ref="I165" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
